--- a/Таблица.xlsx
+++ b/Таблица.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>67.0%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
